--- a/III trimestre/costos.xlsx
+++ b/III trimestre/costos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846B473-D245-4729-B4C4-E7BAB982BAC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{49E0AAA1-308C-4A9D-8A6B-C8C59042BE7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hosting" sheetId="1" r:id="rId1"/>
@@ -18,15 +17,17 @@
     <sheet name="Aproximados" sheetId="5" r:id="rId3"/>
     <sheet name="Software" sheetId="3" r:id="rId4"/>
     <sheet name="Hardware" sheetId="4" r:id="rId5"/>
-    <sheet name="Sueldo trabajadores" sheetId="6" r:id="rId6"/>
-    <sheet name="Costos totales" sheetId="7" r:id="rId7"/>
+    <sheet name="Auxilios" sheetId="8" r:id="rId6"/>
+    <sheet name="Riesgos" sheetId="9" r:id="rId7"/>
+    <sheet name="Sueldo trabajadores " sheetId="6" r:id="rId8"/>
+    <sheet name="Costos totales" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Hardware!$A$2:$A$7</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Hardware!$B$2:$B$7</definedName>
     <definedName name="Sueldos">Tabla11[#All]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>Opciones</t>
   </si>
@@ -190,9 +191,6 @@
     <t>Sueldo por trabajador anual</t>
   </si>
   <si>
-    <t>Sueldo total de todos los empleados</t>
-  </si>
-  <si>
     <t>Costo máximo</t>
   </si>
   <si>
@@ -203,15 +201,6 @@
   </si>
   <si>
     <t>Opción Linux</t>
-  </si>
-  <si>
-    <t>costo máximo por equipo unid</t>
-  </si>
-  <si>
-    <t>costo máximo hosting</t>
-  </si>
-  <si>
-    <t>costo mínimo hosting</t>
   </si>
   <si>
     <t>Software utilizado a lo largo de la formación SENA</t>
@@ -229,9 +218,6 @@
     <t>cantidad de años trabajando</t>
   </si>
   <si>
-    <t>Sueldo por trabajador diario</t>
-  </si>
-  <si>
     <t>total, Hardware (costos de software incluidos)</t>
   </si>
   <si>
@@ -247,26 +233,135 @@
     <t>inversión total</t>
   </si>
   <si>
-    <t>costo máximo por equipo unidad</t>
+    <t>De 1 a 2 equipos</t>
+  </si>
+  <si>
+    <t>$ -</t>
+  </si>
+  <si>
+    <t>costo maximo hosting</t>
+  </si>
+  <si>
+    <t>costo minimo hosting</t>
+  </si>
+  <si>
+    <t>Luis Felipe Gamba Russi</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Serrano Amaya</t>
+  </si>
+  <si>
+    <t>Luis Gabriel Ramirez Molina</t>
+  </si>
+  <si>
+    <t>Arley Sebastián</t>
+  </si>
+  <si>
+    <t>Gutiérrez Pintor</t>
+  </si>
+  <si>
+    <t>Total sueldos</t>
+  </si>
+  <si>
+    <t>Tipo de auxilio</t>
+  </si>
+  <si>
+    <t>Aplica al grupo</t>
+  </si>
+  <si>
+    <t>Total auxio por persona al grupo</t>
+  </si>
+  <si>
+    <t>auxilio Transporte</t>
+  </si>
+  <si>
+    <t>Razones para resivir el auxilio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nivel de riesgo </t>
+  </si>
+  <si>
+    <t>costo de riesgo</t>
+  </si>
+  <si>
+    <t>Riesgo I</t>
+  </si>
+  <si>
+    <t>Riesgo II</t>
+  </si>
+  <si>
+    <t>Riesgo III</t>
+  </si>
+  <si>
+    <t>Riesgo IV</t>
+  </si>
+  <si>
+    <t>Riesgo v</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Salud(EPS:trabajador(4%))</t>
+  </si>
+  <si>
+    <t>Pension:trabajador(4%)</t>
+  </si>
+  <si>
+    <t>Caja de compensación</t>
+  </si>
+  <si>
+    <t>Costos de auxilio por persona mensual</t>
+  </si>
+  <si>
+    <t>Riesgos en Promedio</t>
+  </si>
+  <si>
+    <t>Almenos trabajar 48 horas semanales o 8 horas diarias</t>
+  </si>
+  <si>
+    <t>La salud EPS del trabajador sera de 4%</t>
+  </si>
+  <si>
+    <t>La pension del trabajador sera del 4%</t>
+  </si>
+  <si>
+    <t>Caja de compensacion Mensual</t>
+  </si>
+  <si>
+    <t>Promedio de los constos de riesdos de nivel 1 a nivel 5</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>sueldo total por trabajadores con auxilios</t>
+  </si>
+  <si>
+    <t>costo minimo por equipo unidad</t>
+  </si>
+  <si>
+    <t>costo maximo por equipo unidad</t>
+  </si>
+  <si>
+    <t>Sueldo total de todos los empleados</t>
+  </si>
+  <si>
+    <t>Sueldo por trabajador diario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,14 +373,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -313,6 +400,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -335,12 +430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -412,19 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -459,114 +541,291 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="93">
     <dxf>
       <font>
         <b/>
@@ -592,7 +851,7 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -641,7 +900,256 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -717,145 +1225,133 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -871,321 +1367,35 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1201,128 +1411,35 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1338,478 +1455,32 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1844,7 +1515,168 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1900,6 +1732,510 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1930,6 +2266,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1955,7 +2292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2009,8 +2346,14 @@
             <c:numRef>
               <c:f>(Hosting!$B$2,Hosting!$D$2)</c:f>
               <c:numCache>
-                <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>114750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4131000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2065,8 +2408,14 @@
             <c:numRef>
               <c:f>(Hosting!$B$3,Hosting!$D$3)</c:f>
               <c:numCache>
-                <c:formatCode>_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>182000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6552000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2130,7 +2479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2115171455"/>
@@ -2161,7 +2510,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2189,7 +2538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="6555903"/>
@@ -2206,6 +2555,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2231,7 +2581,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2261,7 +2611,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2337,7 +2687,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo trabajadores'!$C$7</c:f>
+              <c:f>'Sueldo trabajadores '!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2359,10 +2709,13 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo trabajadores'!$D$7</c:f>
+              <c:f>'Sueldo trabajadores '!$D$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2377,7 +2730,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo trabajadores'!$E$7</c:f>
+              <c:f>'Sueldo trabajadores '!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2399,10 +2752,13 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo trabajadores'!$F$7</c:f>
+              <c:f>'Sueldo trabajadores '!$F$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48510</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2417,7 +2773,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo trabajadores'!$G$7</c:f>
+              <c:f>'Sueldo trabajadores '!$G$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2439,10 +2795,13 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo trabajadores'!$H$7</c:f>
+              <c:f>'Sueldo trabajadores '!$H$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>194040</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2457,7 +2816,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sueldo trabajadores'!$I$7</c:f>
+              <c:f>'Sueldo trabajadores '!$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2479,10 +2838,13 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sueldo trabajadores'!$J$7</c:f>
+              <c:f>'Sueldo trabajadores '!$J$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2328480</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2573,7 +2935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16294175"/>
@@ -2590,6 +2952,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2615,12 +2978,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2628,7 +2992,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2652,7 +3015,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2708,6 +3071,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2733,7 +3097,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2819,10 +3183,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3274700</c:v>
+                  <c:v>6340200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11642400</c:v>
+                  <c:v>11891870.800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2670750</c:v>
@@ -2890,7 +3254,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1389555807"/>
@@ -2949,7 +3313,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341643231"/>
@@ -2990,7 +3354,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3041,6 +3405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3066,7 +3431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3122,6 +3487,12 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6288000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3144000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3178,6 +3549,12 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3769998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3241,7 +3618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132656639"/>
@@ -3300,7 +3677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1379391695"/>
@@ -3317,6 +3694,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3342,12 +3720,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3355,7 +3734,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3379,7 +3757,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3430,6 +3808,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3455,7 +3834,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3533,10 +3912,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>costo máximo por equipo unid</c:v>
+                  <c:v>costo maximo por equipo unidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>costo máximo por equipo unidad</c:v>
+                  <c:v>costo minimo por equipo unidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>costo aproximado equipo por unidad</c:v>
@@ -3550,6 +3929,15 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3144000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1964500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3580,6 +3968,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3605,7 +3994,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3635,7 +4024,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3691,6 +4080,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3716,7 +4106,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3784,10 +4174,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>costo máximo por equipo unid</c:v>
+                  <c:v>costo maximo por equipo unidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>costo máximo por equipo unidad</c:v>
+                  <c:v>costo minimo por equipo unidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>costo aproximado equipo por unidad</c:v>
@@ -3801,6 +4191,15 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3144000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1964500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3863,7 +4262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285442415"/>
@@ -3922,7 +4321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1341714927"/>
@@ -3963,7 +4362,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4019,6 +4418,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4044,7 +4444,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4112,10 +4512,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>costo máximo por equipo unid</c:v>
+                  <c:v>costo maximo por equipo unidad</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>costo máximo por equipo unidad</c:v>
+                  <c:v>costo minimo por equipo unidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>costo aproximado equipo por unidad</c:v>
@@ -4129,6 +4529,15 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3144000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1964500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4192,7 +4601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1285453231"/>
@@ -4251,7 +4660,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1284453199"/>
@@ -4292,7 +4701,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4346,6 +4755,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4371,7 +4781,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4439,10 +4849,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>costo máximo hosting</c:v>
+                  <c:v>costo maximo hosting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>costo mínimo hosting</c:v>
+                  <c:v>costo minimo hosting</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>costo aproximado hosting</c:v>
@@ -4456,6 +4866,15 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3276000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2065500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2670750</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4518,7 +4937,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132643743"/>
@@ -4577,7 +4996,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1329100559"/>
@@ -4618,7 +5037,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4669,6 +5088,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4694,7 +5114,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4772,10 +5192,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>costo máximo hosting</c:v>
+                  <c:v>costo maximo hosting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>costo mínimo hosting</c:v>
+                  <c:v>costo minimo hosting</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>costo aproximado hosting</c:v>
@@ -4789,6 +5209,15 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3276000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2065500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2670750</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4819,6 +5248,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4844,7 +5274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4874,7 +5304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4928,6 +5358,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4953,7 +5384,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5040,10 +5471,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>costo máximo hosting</c:v>
+                  <c:v>costo maximo hosting</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>costo mínimo hosting</c:v>
+                  <c:v>costo minimo hosting</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>costo aproximado hosting</c:v>
@@ -5057,6 +5488,15 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3276000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2065500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2670750</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5120,7 +5560,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1132631679"/>
@@ -5179,7 +5619,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1342090303"/>
@@ -5220,7 +5660,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5246,6 +5686,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5271,7 +5712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5290,7 +5731,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Total $ 1.099.999,00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5586,6 +6027,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)">
+                  <c:v>1099999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5634,6 +6108,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5659,12 +6134,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5672,7 +6148,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5696,7 +6171,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12821,10 +13296,6 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4614412" y="0"/>
-              <a:ext cx="6807499" cy="3249193"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -12842,7 +13313,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>Este gráfico no está disponible en su versión de Excel.
 Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
@@ -12939,106 +13410,154 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9F99FD28-A156-473C-9981-A7B3D38A080D}" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="70" tableBorderDxfId="71" totalsRowBorderDxfId="69">
-  <autoFilter ref="A1:E3" xr:uid="{FD92B092-6A91-460F-8C82-7A9CC840FEBB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:E3" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90" totalsRowBorderDxfId="89">
+  <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1B3F5540-D6D6-417D-8699-3B589313DD0A}" name="Opciones" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{26FC8C05-7FD0-469D-9B41-015D23773BCC}" name="Precio hosting cada 2 meses (costo unitario)" dataDxfId="67" dataCellStyle="Moneda [0]"/>
-    <tableColumn id="3" xr3:uid="{AFCEC0D3-ABEE-448F-9147-DF661278C0E5}" name="Tiempo de vida en meses" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{ED359EC2-4781-4737-9962-EC41FC4E6800}" name="Costo total" dataDxfId="65" dataCellStyle="Moneda [0]"/>
-    <tableColumn id="5" xr3:uid="{CBBE41CA-162F-43C2-8654-D4C3FEEFA24B}" name="Tiempo de vida en años" dataDxfId="64"/>
+    <tableColumn id="1" name="Opciones" dataDxfId="88"/>
+    <tableColumn id="2" name="Precio hosting cada 2 meses (costo unitario)" dataDxfId="21"/>
+    <tableColumn id="3" name="Tiempo de vida en meses" dataDxfId="20"/>
+    <tableColumn id="4" name="Costo total" dataDxfId="19">
+      <calculatedColumnFormula>Tabla1[[#This Row],[Precio hosting cada 2 meses (costo unitario)]]*Tabla1[[#This Row],[Tiempo de vida en meses]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Tiempo de vida en años" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CF8533B6-6DB9-4B68-ABFC-57225EC9F1E0}" name="Tabla2" displayName="Tabla2" ref="A1:F3" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="61" tableBorderDxfId="62" totalsRowBorderDxfId="60">
-  <autoFilter ref="A1:F3" xr:uid="{3A127CC7-DAE3-4C2A-B7B0-EECBD144C7E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:F3" totalsRowShown="0" headerRowDxfId="87" headerRowBorderDxfId="86" tableBorderDxfId="85" totalsRowBorderDxfId="84">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1B75F409-FA25-4346-8E4D-64FF16C681CA}" name="Opciones" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{EDF03F68-B05E-458B-9397-67652DD6354C}" name="Costo unitario" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{9BBDB5A0-B3F9-495B-A266-18A70D898C5C}" name="Cantidad Aproximada" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{17C78C4C-74BA-40FC-846A-2AAA6B0F4733}" name="Costo máximo" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{58105867-8672-4C6D-8634-3369D7D6A946}" name="Costo mínimo" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{077EA4FF-D3B5-4AE7-B616-AFBEA30FF35E}" name="Agregados" dataDxfId="54"/>
+    <tableColumn id="1" name="Opciones" dataDxfId="83"/>
+    <tableColumn id="2" name="Costo unitario" dataDxfId="26"/>
+    <tableColumn id="3" name="Cantidad Aproximada" dataDxfId="25"/>
+    <tableColumn id="4" name="Costo máximo" dataDxfId="24"/>
+    <tableColumn id="5" name="Costo mínimo" dataDxfId="23"/>
+    <tableColumn id="6" name="Agregados" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{83439F3C-E7F1-4B75-B02C-26F3556A9256}" name="Tabla8" displayName="Tabla8" ref="A1:F2" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50">
-  <autoFilter ref="A1:F2" xr:uid="{38799284-46D0-46BC-8F3C-A58FB8AAA3D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A1:F3" totalsRowCount="1" headerRowDxfId="82" dataDxfId="33">
+  <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6F2C125C-CE93-4CC6-B676-C0BFF842AA48}" name="costo máximo por equipo unid" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{E3EE1DCC-37F1-469B-B680-F7E156B938FF}" name="costo máximo por equipo unidad" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{5831ADBA-C865-49AF-8982-9036178BEB27}" name="costo aproximado equipo por unidad" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{9AF8B22D-351D-4645-95BE-F85D0CE64D31}" name="costo máximo hosting" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{A026F4D9-EECA-49C1-8402-0286A6150964}" name="costo mínimo hosting" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{04A61BF3-999E-4926-90E2-D96047DA2D40}" name="costo aproximado hosting" dataDxfId="44"/>
+    <tableColumn id="1" name="costo maximo por equipo unidad" dataDxfId="39" totalsRowDxfId="32">
+      <calculatedColumnFormula>Tabla2[[#This Row],[Costo mínimo]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="costo minimo por equipo unidad" dataDxfId="38" totalsRowDxfId="31">
+      <calculatedColumnFormula>'Equipo sistema OIS'!E3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="costo aproximado equipo por unidad" dataDxfId="37" totalsRowDxfId="30">
+      <calculatedColumnFormula>(Tabla8[[#This Row],[costo maximo por equipo unidad]]+Tabla8[[#This Row],[costo minimo por equipo unidad]])/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="costo maximo hosting" dataDxfId="36" totalsRowDxfId="29"/>
+    <tableColumn id="5" name="costo minimo hosting" dataDxfId="35" totalsRowDxfId="28"/>
+    <tableColumn id="6" name="costo aproximado hosting" dataDxfId="34" totalsRowDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5E48A00A-C767-4E0F-8984-789F7FB2C5BA}" name="Tabla9" displayName="Tabla9" ref="A1:D13" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="41" tableBorderDxfId="42" totalsRowBorderDxfId="40">
-  <autoFilter ref="A1:D13" xr:uid="{A5290602-D0AE-456B-9F17-8AD1684A5037}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla9" displayName="Tabla9" ref="A1:D13" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+  <autoFilter ref="A1:D13"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2578C7E5-C806-4395-ABF5-2919CC47BEBA}" name="Software utilizado a lo largo de la formación SENA" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{A6D87804-D924-4017-933F-31546390711D}" name="Costo unitario" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{40F0EAC5-4C66-4801-8CA4-F335051458ED}" name="Tiempo de vida meses" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{8F2DC6A1-5D98-4C05-91E0-91A858EA4A27}" name="Costo Total" dataDxfId="36"/>
+    <tableColumn id="1" name="Software utilizado a lo largo de la formación SENA" dataDxfId="77"/>
+    <tableColumn id="2" name="Costo unitario" dataDxfId="42"/>
+    <tableColumn id="3" name="Tiempo de vida meses" dataDxfId="41"/>
+    <tableColumn id="4" name="Costo Total" dataDxfId="40">
+      <calculatedColumnFormula>Tabla9[[#This Row],[Costo unitario]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{20C4484D-DEC4-4F67-B1DF-29C83C826DB2}" name="Tabla10" displayName="Tabla10" ref="A1:D8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="34" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D8" xr:uid="{4E55ED4C-D5D4-422D-AE44-77FEDAB01CC6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla10" displayName="Tabla10" ref="A1:D8" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{286CE787-B13B-4B6F-8EF6-D9A19BC96A65}" name="Materiales utilizados" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7AA5CF79-F6D4-4213-B0D2-F184E5D244B3}" name="Costo unitario" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E5E3F461-5637-4E69-9AF7-12C7A4A1BD33}" name="Cantidad" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EEC05451-3302-4DAB-A330-1A44B195E49F}" name="Costo total" dataDxfId="1"/>
+    <tableColumn id="1" name="Materiales utilizados" dataDxfId="71"/>
+    <tableColumn id="2" name="Costo unitario" dataDxfId="67"/>
+    <tableColumn id="3" name="Cantidad" dataDxfId="66"/>
+    <tableColumn id="4" name="Costo total" dataDxfId="65">
+      <calculatedColumnFormula>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{20C99CC8-9823-4FE5-B9FE-02CC90D2264B}" name="Tabla11" displayName="Tabla11" ref="A1:M7" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="32" tableBorderDxfId="33" totalsRowBorderDxfId="31">
-  <autoFilter ref="A1:M7" xr:uid="{550A1048-6349-42B7-AD8E-EA5F64EC05E7}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{4E19352F-FA7C-4B5F-AA8A-B743E1EC4AD5}" name="Trabajadores" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{FCF7865E-938D-4471-8CA7-F6554A87962D}" name="cantidad de sueldos" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{65B3AF0D-7D9E-43F6-A246-A6EBFB0A3575}" name="horas diarias aproximadas" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{D11AE30D-2A40-4A90-B1FF-6FF849864036}" name="Días trabajados a la semana" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{172C53AC-1FDA-4D5F-9B4B-B1129D99EA57}" name="horas totales a la semana" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{D301C8EC-8342-4BB2-A591-E44040720CC9}" name="Días en el mes trabajados" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{6C965FEF-03B7-4DB7-8239-9725B5314AC5}" name="horas trabajadas al mes" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{166578CD-391A-4AA5-B469-E52A399F329B}" name="Días trabajados al año" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{534E3235-CA07-4154-898C-20DCAA66DC71}" name="horas trabajadas al año" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{686F7D38-2EBC-4103-912C-40B38D6D43C2}" name="cantidad de años trabajando" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{74277FDF-4DD8-46F9-9817-34133891C375}" name="tiempo total trabajado en horas" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{02D053D6-7911-4215-A625-D89152AC3C1D}" name="sueldo por hora trabajada" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{373CA9F8-E448-465E-8A78-F24886D3A252}" name="Sueldo total por trabajadores" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:E7" totalsRowShown="0" headerRowDxfId="45" dataDxfId="54" headerRowBorderDxfId="52" tableBorderDxfId="53" totalsRowBorderDxfId="51">
+  <autoFilter ref="A1:E7"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Tipo de auxilio" dataDxfId="50"/>
+    <tableColumn id="2" name="Costos de auxilio por persona mensual" dataDxfId="49"/>
+    <tableColumn id="3" name="Razones para resivir el auxilio" dataDxfId="48"/>
+    <tableColumn id="4" name="Aplica al grupo" dataDxfId="47"/>
+    <tableColumn id="5" name="Total auxio por persona al grupo" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2266434C-F025-49DA-98B0-2E3682FECCD2}" name="Tabla12" displayName="Tabla12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:E2" xr:uid="{C17CCDA1-4B53-406D-A50D-7209B5FBCD23}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:B7" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="nivel de riesgo " dataDxfId="44"/>
+    <tableColumn id="2" name="costo de riesgo" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla11" displayName="Tabla11" ref="A1:N7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="55" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:N7"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Trabajadores" dataDxfId="14"/>
+    <tableColumn id="2" name="cantidad de sueldos" dataDxfId="13"/>
+    <tableColumn id="3" name="horas diarias aproximadas" dataDxfId="12"/>
+    <tableColumn id="4" name="Días trabajados a la semana" dataDxfId="11"/>
+    <tableColumn id="5" name="horas totales a la semana" dataDxfId="10"/>
+    <tableColumn id="6" name="Días en el mes trabajados" dataDxfId="9"/>
+    <tableColumn id="7" name="horas trabajadas al mes" dataDxfId="8"/>
+    <tableColumn id="8" name="Días trabajados al año" dataDxfId="7"/>
+    <tableColumn id="9" name="horas trabajadas al año" dataDxfId="6"/>
+    <tableColumn id="10" name="cantidad de años trabajando" dataDxfId="5"/>
+    <tableColumn id="11" name="tiempo total trabajado en horas" dataDxfId="4"/>
+    <tableColumn id="12" name="sueldo por hora trabajada" dataDxfId="3"/>
+    <tableColumn id="13" name="Sueldo total por trabajadores" dataDxfId="2"/>
+    <tableColumn id="14" name="sueldo total por trabajadores con auxilios" dataDxfId="1">
+      <calculatedColumnFormula>M2+Auxilios!E3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla12" displayName="Tabla12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowBorderDxfId="70" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+  <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F3E45B28-6EB8-44DF-819C-0B3A45739E96}" name="Costos totales" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{282BF41D-CB03-4486-A794-23E707A5862C}" name="total, Hardware (costos de software incluidos)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{96191D73-55FD-43F2-A321-BC535B8169E1}" name="Total, Sueldo Empleados" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{14353850-58B7-4B10-8780-806BB10C2B85}" name="Hosting costo aproximado entre máximo y mínimo" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{70DBB349-CBCE-4D98-AE2E-2F947758D6D1}" name="inversión total" dataDxfId="9"/>
+    <tableColumn id="1" name="Costos totales" dataDxfId="62"/>
+    <tableColumn id="2" name="total, Hardware (costos de software incluidos)" dataDxfId="61">
+      <calculatedColumnFormula>Hardware!D8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Total, Sueldo Empleados" dataDxfId="60">
+      <calculatedColumnFormula>'Sueldo trabajadores '!N7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Hosting costo aproximado entre máximo y mínimo" dataDxfId="59">
+      <calculatedColumnFormula>Tabla8[[#This Row],[costo aproximado hosting]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="inversión total" dataDxfId="58">
+      <calculatedColumnFormula>SUM(Tabla12[[#This Row],[total, Hardware (costos de software incluidos)]:[Hosting costo aproximado entre máximo y mínimo]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13340,11 +13859,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D029AC8-23CC-44B8-9435-D8F876E8BE58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13355,7 +13874,7 @@
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13372,23 +13891,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="19">
+        <v>114750</v>
+      </c>
+      <c r="C2" s="20">
+        <v>36</v>
+      </c>
+      <c r="D2" s="58">
+        <f>Tabla1[[#This Row],[Precio hosting cada 2 meses (costo unitario)]]*Tabla1[[#This Row],[Tiempo de vida en meses]]</f>
+        <v>4131000</v>
+      </c>
+      <c r="E2" s="47">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="24">
+        <v>182000</v>
+      </c>
+      <c r="C3" s="59">
+        <v>36</v>
+      </c>
+      <c r="D3" s="58">
+        <f>Tabla1[[#This Row],[Precio hosting cada 2 meses (costo unitario)]]*Tabla1[[#This Row],[Tiempo de vida en meses]]</f>
+        <v>6552000</v>
+      </c>
+      <c r="E3" s="60">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13400,7 +13937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCE4EB-24DB-4175-817F-9DD34C1F42AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13417,45 +13954,65 @@
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>6</v>
+      <c r="B2" s="50">
+        <v>3144000</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="52">
+        <v>6288000</v>
+      </c>
+      <c r="E2" s="52">
+        <v>3144000</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="54">
+        <v>785000</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="56">
+        <v>3769998</v>
+      </c>
+      <c r="E3" s="56">
+        <v>785000</v>
+      </c>
+      <c r="F3" s="57">
+        <v>1099999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13467,11 +14024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9740D984-23D8-45BF-8C43-D2652B354B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13484,35 +14041,53 @@
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="28">
+        <f>Tabla2[[#This Row],[Costo mínimo]]</f>
+        <v>3144000</v>
+      </c>
+      <c r="B2" s="28">
+        <f>'Equipo sistema OIS'!E3</f>
+        <v>785000</v>
+      </c>
+      <c r="C2" s="28">
+        <f>(Tabla8[[#This Row],[costo maximo por equipo unidad]]+Tabla8[[#This Row],[costo minimo por equipo unidad]])/2</f>
+        <v>1964500</v>
+      </c>
+      <c r="D2" s="28">
+        <v>3276000</v>
+      </c>
+      <c r="E2" s="28">
+        <v>2065500</v>
+      </c>
+      <c r="F2" s="28">
+        <v>2670750</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -13531,7 +14106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA583CB-CD0A-4A41-AFAF-DFD05E10F3F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13546,115 +14121,198 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="B2" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="20">
+        <v>9</v>
+      </c>
+      <c r="D2" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="23">
+        <v>9</v>
+      </c>
+      <c r="D3" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="23">
+        <v>9</v>
+      </c>
+      <c r="D4" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="23">
+        <v>3</v>
+      </c>
+      <c r="D5" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
+      <c r="B6" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="23">
+        <v>9</v>
+      </c>
+      <c r="D7" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="23">
+        <v>13</v>
+      </c>
+      <c r="D8" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="B9" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="23">
+        <v>12</v>
+      </c>
+      <c r="D9" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="23">
+        <v>13</v>
+      </c>
+      <c r="D10" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="22">
+        <v>1099999</v>
+      </c>
+      <c r="C11" s="23">
+        <v>36</v>
+      </c>
+      <c r="D11" s="47">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>1099999</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="23">
+        <v>13</v>
+      </c>
+      <c r="D12" s="47" t="str">
+        <f>Tabla9[[#This Row],[Costo unitario]]</f>
+        <v>$ -</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="24">
+        <f>SUM(B2:B12)</f>
+        <v>1099999</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="49">
+        <f>SUM(D2:D12)</f>
+        <v>1099999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13667,11 +14325,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1535D587-25E9-4E29-B5CF-0900FDF6CB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13681,7 +14339,7 @@
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -13695,61 +14353,108 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="19">
+        <v>999900</v>
+      </c>
+      <c r="C2" s="20">
+        <v>4</v>
+      </c>
+      <c r="D2" s="21">
+        <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
+        <v>3999600</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="22">
+        <v>32900</v>
+      </c>
+      <c r="C3" s="23">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21">
+        <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
+        <v>131600</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="22">
+        <v>36900</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
+        <v>36900</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="22">
+        <v>19900</v>
+      </c>
+      <c r="C5" s="23">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21">
+        <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
+        <v>59700</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="22">
+        <v>149900</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
+        <v>149900</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="22">
+        <v>1962500</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <f>Tabla10[[#This Row],[Costo unitario]]*Tabla10[[#This Row],[Cantidad]]</f>
+        <v>1962500</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="24">
+        <v>3202000</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="21">
+        <f>SUM(D2:D7)</f>
+        <v>6340200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13762,11 +14467,236 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D639F3A6-F5C3-40FE-8C2B-98C3E95BE96B}">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="37">
+        <v>97032</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="37">
+        <v>103515</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="40">
+        <v>33125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="37">
+        <v>132499</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="40">
+        <v>33125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="37">
+        <v>33125</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="40">
+        <f>B5</f>
+        <v>33125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="37">
+        <f>Riesgos!B7</f>
+        <v>25360.400000000001</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="40">
+        <f>B6</f>
+        <v>25360.400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="42">
+        <f>SUM(B2:B6)</f>
+        <v>391531.4</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44">
+        <f>(E2+E3+E4+E5+E6)</f>
+        <v>124735.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="37">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="37">
+        <v>8646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="37">
+        <v>20173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="37">
+        <v>36023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="37">
+        <v>57637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="37">
+        <f>(B2+B3+B4+B5+B6)/5</f>
+        <v>25360.400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13784,156 +14714,361 @@
     <col min="11" max="11" width="43.28515625" customWidth="1"/>
     <col min="12" max="12" width="32.42578125" customWidth="1"/>
     <col min="13" max="13" width="33.7109375" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>5</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="27">
+        <v>12</v>
+      </c>
+      <c r="G2" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
         <v>60</v>
       </c>
-      <c r="K1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>43</v>
+      <c r="H2" s="27">
+        <v>144</v>
+      </c>
+      <c r="I2" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
+        <v>720</v>
+      </c>
+      <c r="J2" s="27">
+        <v>1</v>
+      </c>
+      <c r="K2" s="27">
+        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L2" s="28">
+        <v>3234</v>
+      </c>
+      <c r="M2" s="28">
+        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
+        <v>2328480</v>
+      </c>
+      <c r="N2" s="34">
+        <f>M2+Auxilios!E3</f>
+        <v>2361605</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
+    <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>5</v>
+      </c>
+      <c r="D3" s="27">
+        <v>3</v>
+      </c>
+      <c r="E3" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="27">
+        <v>12</v>
+      </c>
+      <c r="G3" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
+        <v>60</v>
+      </c>
+      <c r="H3" s="27">
+        <v>144</v>
+      </c>
+      <c r="I3" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
+        <v>720</v>
+      </c>
+      <c r="J3" s="27">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27">
+        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L3" s="28">
+        <v>3234</v>
+      </c>
+      <c r="M3" s="28">
+        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
+        <v>2328480</v>
+      </c>
+      <c r="N3" s="34">
+        <f>M3+Auxilios!E4</f>
+        <v>2361605</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27">
+        <v>5</v>
+      </c>
+      <c r="D4" s="27">
+        <v>3</v>
+      </c>
+      <c r="E4" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
+        <v>15</v>
+      </c>
+      <c r="F4" s="27">
+        <v>12</v>
+      </c>
+      <c r="G4" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
+        <v>60</v>
+      </c>
+      <c r="H4" s="27">
+        <v>144</v>
+      </c>
+      <c r="I4" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
+        <v>720</v>
+      </c>
+      <c r="J4" s="27">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27">
+        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L4" s="28">
+        <v>3234</v>
+      </c>
+      <c r="M4" s="28">
+        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
+        <v>2328480</v>
+      </c>
+      <c r="N4" s="34">
+        <f>M4+Auxilios!E5</f>
+        <v>2361605</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>5</v>
+      </c>
+      <c r="D5" s="27">
+        <v>3</v>
+      </c>
+      <c r="E5" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="27">
+        <v>12</v>
+      </c>
+      <c r="G5" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
+        <v>60</v>
+      </c>
+      <c r="H5" s="27">
+        <v>144</v>
+      </c>
+      <c r="I5" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
+        <v>720</v>
+      </c>
+      <c r="J5" s="27">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27">
+        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L5" s="28">
+        <v>3234</v>
+      </c>
+      <c r="M5" s="28">
+        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
+        <v>2328480</v>
+      </c>
+      <c r="N5" s="34">
+        <f>M5+Auxilios!E6</f>
+        <v>2353840.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27">
+        <v>5</v>
+      </c>
+      <c r="D6" s="27">
+        <v>3</v>
+      </c>
+      <c r="E6" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados a la semana]]</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="27">
+        <v>12</v>
+      </c>
+      <c r="G6" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días en el mes trabajados]]</f>
+        <v>60</v>
+      </c>
+      <c r="H6" s="27">
+        <v>144</v>
+      </c>
+      <c r="I6" s="27">
+        <f>Tabla11[[#This Row],[horas diarias aproximadas]]*Tabla11[[#This Row],[Días trabajados al año]]</f>
+        <v>720</v>
+      </c>
+      <c r="J6" s="27">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27">
+        <f>Tabla11[[#This Row],[horas trabajadas al año]]*Tabla11[[#This Row],[cantidad de años trabajando]]</f>
+        <v>720</v>
+      </c>
+      <c r="L6" s="28">
+        <v>3234</v>
+      </c>
+      <c r="M6" s="28">
+        <f>Tabla11[[#This Row],[sueldo por hora trabajada]]*Tabla11[[#This Row],[tiempo total trabajado en horas]]</f>
+        <v>2328480</v>
+      </c>
+      <c r="N6" s="34">
+        <f>M6+Auxilios!E7</f>
+        <v>2453215.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="27"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="30">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="31">
+        <f>L2*C2</f>
+        <v>16170</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="31">
+        <f>L2*E2</f>
+        <v>48510</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="31">
+        <f>L2*G2</f>
+        <v>194040</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="31">
+        <f>L2*I2</f>
+        <v>2328480</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="31">
+        <f>SUM(L2:L6)</f>
+        <v>16170</v>
+      </c>
+      <c r="M7" s="31">
+        <f>SUM(M2:M6)</f>
+        <v>11642400</v>
+      </c>
+      <c r="N7" s="61">
+        <f>SUM(N2:N6)</f>
+        <v>11891870.800000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -13946,12 +15081,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA59CC14-43B8-4EA8-AE03-2B7A9E783130}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13964,37 +15099,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>66</v>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="29">
-        <v>3274700</v>
-      </c>
-      <c r="C2" s="29">
-        <v>11642400</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="A2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="14">
+        <f>Hardware!D8</f>
+        <v>6340200</v>
+      </c>
+      <c r="C2" s="14">
+        <f>'Sueldo trabajadores '!N7</f>
+        <v>11891870.800000001</v>
+      </c>
+      <c r="D2" s="14">
+        <f>Tabla8[[#This Row],[costo aproximado hosting]]</f>
         <v>2670750</v>
       </c>
-      <c r="E2" s="31">
-        <v>17587850</v>
+      <c r="E2" s="15">
+        <f>SUM(Tabla12[[#This Row],[total, Hardware (costos de software incluidos)]:[Hosting costo aproximado entre máximo y mínimo]])</f>
+        <v>20902820.800000001</v>
       </c>
     </row>
   </sheetData>
